--- a/N2語彙.xlsx
+++ b/N2語彙.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlong\source\repos\-JPeseLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="243">
   <si>
     <t>ビラ</t>
     <phoneticPr fontId="3"/>
@@ -465,12 +465,1156 @@
     <t>Bồn tắm</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>真ん前</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>真後ろ</t>
+    <rPh sb="0" eb="2">
+      <t>マウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>真ん中</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>斜め前</t>
+    <rPh sb="0" eb="1">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>買い換える</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>家電製品</t>
+    <rPh sb="0" eb="4">
+      <t>カデンセイヒン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>省エネ</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>電気代を節約する</t>
+    <rPh sb="0" eb="3">
+      <t>デンキダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツヤク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ごみがだまる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リサイクルに出す</t>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Man mae</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ma ushiro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>man naka</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>naname mae</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kai kaeru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kaden seihin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>shou ene</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>denkidai wo setsuyaku suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Thẳng sau</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Giữa</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Mua thay thế</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Thiết bị gia điện</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tiết kiệm tiền điện</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Chất đống rác</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dđem tái chế</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Thẳng tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc mặt</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Phía tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i chếch</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Tiết kiệm năng l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不用品を処分する</t>
+    <rPh sb="0" eb="3">
+      <t>フヨウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ごみを分別する</t>
+    <rPh sb="3" eb="5">
+      <t>ブンベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>燃えるごみ</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>可燃ごみ</t>
+    <rPh sb="0" eb="2">
+      <t>カネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>燃やせるごみ</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>燃やせないごみ</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>不燃ごみ</t>
+    <rPh sb="0" eb="2">
+      <t>フネン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生ごみ</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>粗大ごみ</t>
+    <rPh sb="0" eb="2">
+      <t>ソダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>資源ごみ</t>
+    <rPh sb="0" eb="2">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>指定のごみ袋</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フクロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>fuyouhin wo shobun suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>gomi wo bunbetsu suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>moyaeru gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kanen gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>moyaseru gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>moyasenai gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>funen gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nama gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>soudai gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>shigen gomi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>shitei no gomi bukuro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Túi đựng rác chỉ định</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rác tái chế</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rác cỡ lớn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Xử lý, phân loại đồ không dùng</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Phân loại rác</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rác sống</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Rác cháy đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Rác không cháy đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ラベルを剝がす</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シールを貼る</t>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アルミ缶</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>古新聞を再利用する</t>
+    <rPh sb="0" eb="3">
+      <t>フルシンブン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>水が漏れる</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>水を漏らす</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秘密が漏れる</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秘密を漏らす</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>こぼれる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>raberu wo hagasu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>shiru wo haru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>arumi kan</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>furushinbun wo sairiyou suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mizu ga moreru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mizu wo morasu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>himitsu ga moreru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>himitsu wo morasu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>koboreru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bóc nhãn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dán nhãn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Lon nhôm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tái sử dụng báo cũ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bí mật bị lộ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Làm lộ bí mật</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bị tràn ra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc rò rỉ</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Làm rò rỉ n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ご無沙汰しております</t>
+    <rPh sb="1" eb="4">
+      <t>ブサタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>久しぶり</t>
+    <rPh sb="0" eb="1">
+      <t>ヒサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>構う</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>gobusatashite orimasu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kamau</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bận tâm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>有人を家に招く</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マネ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yuujin wo ie ni maneku</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rủ bạn về nhà</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>座り心地</t>
+    <rPh sb="0" eb="1">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴコチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>寝心地</t>
+    <rPh sb="0" eb="3">
+      <t>ネゴコチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>居心地</t>
+    <rPh sb="0" eb="3">
+      <t>イゴコチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>家で過ごす</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ゆっくりする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のんびりする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>くつろぐ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>快適に暮らす</t>
+    <rPh sb="0" eb="2">
+      <t>カイテキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半額</t>
+    <rPh sb="0" eb="2">
+      <t>ハンガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>手頃な価格</t>
+    <rPh sb="0" eb="2">
+      <t>テゴロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>suwari gokochi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>negokochi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>igokochi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>iede sogosu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yukkuri suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nonnbiri suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kutsurogu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kaiteki ni kurasu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hangaku</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tegoro na kankaku</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cảm giác khi ngồi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cảm giác khi ngủ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Cảm giác khi ở</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ở nhà</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Làm chậm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Làm từ từ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Relax</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sống thoải mái</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nửa giá</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Giá trong tầm tay</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>家事をする</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>食卓を片付ける</t>
+    <rPh sb="0" eb="2">
+      <t>ショクタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カタヅ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>汚れた食器</t>
+    <rPh sb="0" eb="1">
+      <t>ヨゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショッキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>子育てをする</t>
+    <rPh sb="0" eb="2">
+      <t>コソダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>子供を可愛がる</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>子供を甘やかす</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お尻を叩く</t>
+    <rPh sb="1" eb="2">
+      <t>シリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>怒鳴る</t>
+    <rPh sb="0" eb="2">
+      <t>ドナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>妊娠する</t>
+    <rPh sb="0" eb="2">
+      <t>ニンシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kaji wo suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>shokutaku wo katadukeru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yogoreta shokki</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kosodate wo suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kodomo wo kawaigaru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kodomo wo amayakasu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oshiri wo tataku</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>donaru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ninshin suru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Làm việc nhà</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dọn dẹp bàn ăn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bát đĩa bẩn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nuôi con</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Chiều con</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tát vào mông</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Kêu gào</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Mang thai</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Yêu th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng con</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>子供を生む</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おんぶする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オムツ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おしめ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>おしめを当てる</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>騒ぐ</t>
+    <rPh sb="0" eb="1">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>騒がしい</t>
+    <rPh sb="0" eb="1">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>騒々しい</t>
+    <rPh sb="0" eb="2">
+      <t>ソウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>やかましい</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Umu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>onbusuru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>omutsu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oshime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>oshime wo ateru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sawagu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sawagashii</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>souzoushii</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>sinh con</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cõng</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bỉm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bỉm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>đóng bỉm</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>làm ồn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ồn ào</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rất ồn ào</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://tuhoconline.net/tu-vung-tieng-nhat-n2-luyen-thi-n2.html/2</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,8 +1668,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,8 +1712,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -592,8 +1767,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,12 +1793,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -617,17 +1819,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="チェック セル" xfId="3" builtinId="23"/>
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="悪い" xfId="2" builtinId="27"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="1" builtinId="26"/>
@@ -908,136 +2112,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.296875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="5"/>
+    <col min="1" max="1" width="27.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1056,7 +2260,7 @@
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1067,7 +2271,7 @@
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1153,7 +2357,7 @@
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1164,18 +2368,685 @@
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="G84" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="G84" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/N2語彙.xlsx
+++ b/N2語彙.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="276">
   <si>
     <t>ビラ</t>
     <phoneticPr fontId="3"/>
@@ -1607,6 +1607,193 @@
   </si>
   <si>
     <t>https://tuhoconline.net/tu-vung-tieng-nhat-n2-luyen-thi-n2.html/2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>賑やか</t>
+    <rPh sb="0" eb="1">
+      <t>ニギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>落書き</t>
+    <rPh sb="0" eb="2">
+      <t>ラクガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>暴れる</t>
+    <rPh sb="0" eb="1">
+      <t>アバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>頭をぶつ</t>
+    <rPh sb="0" eb="1">
+      <t>アタマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顔を殴る</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>足でける</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>引っ張る</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いじめる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>海水浴</t>
+    <rPh sb="0" eb="3">
+      <t>カイスイヨク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日光浴</t>
+    <rPh sb="0" eb="3">
+      <t>ニッコウヨク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nigiyaka</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rakugaki</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>abareru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>酔っ払い</t>
+  </si>
+  <si>
+    <t>yopparai</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>atama wo butsu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>atama wo naguru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hashide keru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hipparu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ijimeru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>kaisuiyoku</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nikkouyoku</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tắm nắng</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Tắm biển</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Bắt nạt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Kéo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Đá</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DĐấm vào mặt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Đánh vào đầu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nổi loạn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>grafity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Náo nhiệt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>Say r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợu</t>
+    </r>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1800,7 +1987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,6 +2000,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,12 +2016,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2127,13 +2317,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2260,7 +2450,7 @@
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2271,7 +2461,7 @@
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
@@ -2357,7 +2547,7 @@
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2368,7 +2558,7 @@
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2505,7 +2695,7 @@
       <c r="A36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2516,7 +2706,7 @@
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
         <v>108</v>
       </c>
@@ -2525,7 +2715,7 @@
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
         <v>109</v>
       </c>
@@ -2534,7 +2724,7 @@
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2545,7 +2735,7 @@
       <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
         <v>111</v>
       </c>
@@ -3031,8 +3221,129 @@
         <v>241</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="6" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
